--- a/Exercises/perfect_best_friend.xlsx
+++ b/Exercises/perfect_best_friend.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Mixtape_tracks/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/a_mitra_cgiar_org1/Documents/Documents/Github/Causal-Inference/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31336C30-B62D-274E-9AB5-8CDB50E8F1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{31336C30-B62D-274E-9AB5-8CDB50E8F1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F613FD8-34C8-4FFB-A84F-65DF540F2E03}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="5000" windowWidth="27240" windowHeight="16440" xr2:uid="{4068093D-C091-904A-9949-E624A27E3E44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4068093D-C091-904A-9949-E624A27E3E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfect best friend" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Person</t>
   </si>
@@ -98,6 +100,15 @@
   </si>
   <si>
     <t>heterogenous treatment effect bias</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>ATE+SEL BIAS + HE BIAS</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -168,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -178,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,18 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AF4099-E0B6-D34B-85C1-27696FA64E79}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -533,9 +545,19 @@
       <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2 + (1 - E2)*B2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -545,9 +567,19 @@
       <c r="C3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">E3*C3 + (1 - E3)*B3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -557,9 +589,19 @@
       <c r="C4" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -569,9 +611,19 @@
       <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -581,9 +633,19 @@
       <c r="C6" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -593,9 +655,19 @@
       <c r="C7" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -605,9 +677,19 @@
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -617,9 +699,19 @@
       <c r="C9" s="6">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -629,9 +721,19 @@
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -641,9 +743,19 @@
       <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -653,9 +765,19 @@
       <c r="C12" s="6">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -665,9 +787,19 @@
       <c r="C13" s="6">
         <v>15</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -682,6 +814,47 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f>AVERAGE(F4:F6,F8,F12) - AVERAGE(F2:F3,F7,F9:F11,F13)</f>
+        <v>-3.0285714285714285</v>
+      </c>
+      <c r="B17" s="9">
+        <f>AVERAGE(D2:D13)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C17" s="9">
+        <f>AVERAGE(B4:B6,B8,B12) - AVERAGE(B2:B3,B7,B9:B11,B13)</f>
+        <v>-5.628571428571429</v>
+      </c>
+      <c r="D17" s="9">
+        <f>(1-G17)*(AVERAGE(D4:D6,D8,D12)-AVERAGE(D2:D3,D7,D9:D11,D13))</f>
+        <v>2.9333333333333327</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(E2:E13)/COUNT(E2:E13)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <f>B17+C17+D17</f>
+        <v>-3.0285714285714294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
